--- a/ClassesInterface/PlanilhaNumeros.xlsx
+++ b/ClassesInterface/PlanilhaNumeros.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM31"/>
+  <dimension ref="A1:BM39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -3004,6 +3004,742 @@
         </is>
       </c>
       <c r="U31" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>pedrao</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>io9a</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">arnaldo </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>adailson</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ronaldo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>era</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ronaldinho</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>vazio</t>
         </is>

--- a/ClassesInterface/PlanilhaNumeros.xlsx
+++ b/ClassesInterface/PlanilhaNumeros.xlsx
@@ -1,71 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Python\InterControleChips\ClassesInterface\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC51ABAC-9980-4630-ADD5-7CAF60C8C3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Numeros" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Numeros" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>alem</t>
-  </si>
-  <si>
-    <t>lema</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -386,119 +408,795 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>alem</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>6</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lema</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pedrao </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>uuuuuu</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pppppppp</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sssss</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>uuuuu</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>pppp</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>333333</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>uuuu</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ppp</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>4444444</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>uuuuuu</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>ppppppp</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>ssssss</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ropao</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>dsdaff</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>opa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lindo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>taldo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>will</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>renan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>vazio</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -507,12 +1205,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
